--- a/Reports/Task4/Experiments1.xlsx
+++ b/Reports/Task4/Experiments1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Crossover rate</t>
   </si>
@@ -25,6 +25,30 @@
   </si>
   <si>
     <t>Average error</t>
+  </si>
+  <si>
+    <t>Population size</t>
+  </si>
+  <si>
+    <t>Mutation rate</t>
+  </si>
+  <si>
+    <t>Iterations count</t>
+  </si>
+  <si>
+    <t>Random selection ratio</t>
+  </si>
+  <si>
+    <t>Selection algo</t>
+  </si>
+  <si>
+    <t>Roulette</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Elitary</t>
   </si>
 </sst>
 </file>
@@ -60,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,6 +115,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crossover rate experiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -314,6 +358,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Crossover rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -330,6 +393,25 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -345,6 +427,33 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -385,20 +494,1710 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aggregate time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.4995279598661497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7625027331791001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2277536330323304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8496896922106698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1388862179679098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7821005255574001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0856560365532504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4500751260684197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0019473580295202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="56648448"/>
+        <c:axId val="55999872"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.183053750366099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1623649281732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.154393907931444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.150794908403242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.153342523230237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.158342019638191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.153797926406228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15209676254891799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15594844219385501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196309760"/>
+        <c:axId val="182004352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="56648448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55999872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="55999872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56648448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182004352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196309760"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196309760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182004352"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aggregate time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.54026370601634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.84749048819454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.27990628318096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7875497746560098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3070550067906002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6823267421086801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.662521587409801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.693605746742101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.174453304298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.613694262394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.159829470155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.837219551871499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.073984549111799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.3640389252609</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.005791088963498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.4870458431553</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.674279304727101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.342562553444498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.900028093145998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.542573777015701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.212977870060399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.386756049179702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.726660190301097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.705906506967999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.063412492587403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="180157824"/>
+        <c:axId val="180155904"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.317736202433063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.216840024697497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18224903550914501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14794503551255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12309774626808501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.108082485848429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6395494673225099E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.44711557945447E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6251754315102005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0295199965559302E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5291156199831404E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0582035638538298E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6855099655482598E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4227047712806502E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9838460406889599E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6019809733572198E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5158989570392903E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3133396590052199E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1183995885686497E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8191638384258299E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8489698687815398E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5571499915205203E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5041749963268497E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2719326490870303E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2836153511396002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196414464"/>
+        <c:axId val="196412160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="180157824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180155904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="180155904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180157824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196412160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196414464"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196414464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196412160"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aggregate time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2869802126387597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4791438331438194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.683429937028199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.064756241485998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.981061250244199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.967713412954499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.220122973384001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.975526797815903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.070497371870701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.495328017421102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182280192"/>
+        <c:axId val="182270208"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17653795475046599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154357623211969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.143447428529763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13518807575075001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.129543140190227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12657961249254701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1236627674981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.117755412949943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.115130140662544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11462017978265999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="217281280"/>
+        <c:axId val="192841984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182280192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182270208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182270208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182280192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192841984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217281280"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="217281280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192841984"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aggregate time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4008145985810998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4977729081470397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7982457010813899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9605190354161799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2548842209934801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3059473635044299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7520685760196697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7527792881313102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0582787353362102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2606530681239896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192189952"/>
+        <c:axId val="192188416"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17872261393027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16101955880593199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19110660926505299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20600179690078299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23548670386920501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23890460677308401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25193890169986699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24972005873668099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25660898645847202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25514523489747698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="181656576"/>
+        <c:axId val="181654272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192189952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192188416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192188416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192189952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="181654272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181656576"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="181656576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181654272"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aggregate time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$U$2:$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Roulette</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elitary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.3394220066171103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6882167216838297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6222809786817098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196417024"/>
+        <c:axId val="196413696"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$U$2:$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Roulette</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Elitary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.170711644106876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5377784479456607E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7705646180606902E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="180869760"/>
+        <c:axId val="180867456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196417024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196413696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196413696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196417024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="180867456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180869760"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="180869760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180867456"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -412,6 +2211,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -707,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,9 +2667,27 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,8 +2697,53 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -741,8 +2753,61 @@
       <c r="C2">
         <v>0.19406556515405901</v>
       </c>
+      <c r="D2">
+        <f>(1-C2)/B2</f>
+        <v>0.48452316795197542</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>4.4995279598661497</v>
+      </c>
+      <c r="G2">
+        <v>0.183053750366099</v>
+      </c>
+      <c r="H2">
+        <f>(1-G2)/F2</f>
+        <v>0.18156265655435627</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>1.54026370601634</v>
+      </c>
+      <c r="K2">
+        <v>0.317736202433063</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>4.2869802126387597</v>
+      </c>
+      <c r="O2">
+        <v>0.17653795475046599</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>4.4008145985810998</v>
+      </c>
+      <c r="S2">
+        <v>0.17872261393027</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>4.3394220066171103</v>
+      </c>
+      <c r="W2">
+        <v>0.170711644106876</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -752,8 +2817,61 @@
       <c r="C3">
         <v>0.182512262310181</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">(1-C3)/B3</f>
+        <v>0.43056555027445931</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>4.7625027331791001</v>
+      </c>
+      <c r="G3">
+        <v>0.1623649281732</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="1">(1-G3)/F3</f>
+        <v>0.17588127897359879</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>2.84749048819454</v>
+      </c>
+      <c r="K3">
+        <v>0.216840024697497</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
+      </c>
+      <c r="N3">
+        <v>8.4791438331438194</v>
+      </c>
+      <c r="O3">
+        <v>0.154357623211969</v>
+      </c>
+      <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>4.4977729081470397</v>
+      </c>
+      <c r="S3">
+        <v>0.16101955880593199</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3">
+        <v>4.6882167216838297</v>
+      </c>
+      <c r="W3">
+        <v>9.5377784479456607E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -763,8 +2881,61 @@
       <c r="C4">
         <v>0.18606216357855099</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.34975478849207059</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>5.2277536330323304</v>
+      </c>
+      <c r="G4">
+        <v>0.154393907931444</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.16175324076587494</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>4.27990628318096</v>
+      </c>
+      <c r="K4">
+        <v>0.18224903550914501</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+      <c r="N4">
+        <v>12.683429937028199</v>
+      </c>
+      <c r="O4">
+        <v>0.143447428529763</v>
+      </c>
+      <c r="Q4">
+        <v>0.1</v>
+      </c>
+      <c r="R4">
+        <v>4.7982457010813899</v>
+      </c>
+      <c r="S4">
+        <v>0.19110660926505299</v>
+      </c>
+      <c r="U4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>4.6222809786817098</v>
+      </c>
+      <c r="W4">
+        <v>4.7705646180606902E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -774,8 +2945,52 @@
       <c r="C5">
         <v>0.182246320473087</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.29689136685344408</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>5.8496896922106698</v>
+      </c>
+      <c r="G5">
+        <v>0.150794908403242</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.14517096397908807</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>5.7875497746560098</v>
+      </c>
+      <c r="K5">
+        <v>0.14794503551255</v>
+      </c>
+      <c r="M5">
+        <v>400</v>
+      </c>
+      <c r="N5">
+        <v>17.064756241485998</v>
+      </c>
+      <c r="O5">
+        <v>0.13518807575075001</v>
+      </c>
+      <c r="Q5">
+        <v>0.15</v>
+      </c>
+      <c r="R5">
+        <v>4.9605190354161799</v>
+      </c>
+      <c r="S5">
+        <v>0.20600179690078299</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -785,8 +3000,52 @@
       <c r="C6">
         <v>0.17889959240575501</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.25852248735905614</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>6.1388862179679098</v>
+      </c>
+      <c r="G6">
+        <v>0.153342523230237</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.13791711504469339</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>7.3070550067906002</v>
+      </c>
+      <c r="K6">
+        <v>0.12309774626808501</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
+        <v>20.981061250244199</v>
+      </c>
+      <c r="O6">
+        <v>0.129543140190227</v>
+      </c>
+      <c r="Q6">
+        <v>0.2</v>
+      </c>
+      <c r="R6">
+        <v>5.2548842209934801</v>
+      </c>
+      <c r="S6">
+        <v>0.23548670386920501</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -796,8 +3055,52 @@
       <c r="C7">
         <v>0.17798876728068</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.22163323314812974</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>6.7821005255574001</v>
+      </c>
+      <c r="G7">
+        <v>0.158342019638191</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.12409989754503611</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>8.6823267421086801</v>
+      </c>
+      <c r="K7">
+        <v>0.108082485848429</v>
+      </c>
+      <c r="M7">
+        <v>600</v>
+      </c>
+      <c r="N7">
+        <v>24.967713412954499</v>
+      </c>
+      <c r="O7">
+        <v>0.12657961249254701</v>
+      </c>
+      <c r="Q7">
+        <v>0.25</v>
+      </c>
+      <c r="R7">
+        <v>5.3059473635044299</v>
+      </c>
+      <c r="S7">
+        <v>0.23890460677308401</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -807,8 +3110,52 @@
       <c r="C8">
         <v>0.17349202472639899</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.20210854412965029</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <v>7.0856560365532504</v>
+      </c>
+      <c r="G8">
+        <v>0.153797926406228</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.11942466148912852</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+      <c r="J8">
+        <v>10.662521587409801</v>
+      </c>
+      <c r="K8">
+        <v>9.6395494673225099E-2</v>
+      </c>
+      <c r="M8">
+        <v>700</v>
+      </c>
+      <c r="N8">
+        <v>29.220122973384001</v>
+      </c>
+      <c r="O8">
+        <v>0.1236627674981</v>
+      </c>
+      <c r="Q8">
+        <v>0.3</v>
+      </c>
+      <c r="R8">
+        <v>5.7520685760196697</v>
+      </c>
+      <c r="S8">
+        <v>0.25193890169986699</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -818,8 +3165,52 @@
       <c r="C9">
         <v>0.177726659383274</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.1805976484077704</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>7.4500751260684197</v>
+      </c>
+      <c r="G9">
+        <v>0.15209676254891799</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.11381136741617537</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>11.693605746742101</v>
+      </c>
+      <c r="K9">
+        <v>8.44711557945447E-2</v>
+      </c>
+      <c r="M9">
+        <v>800</v>
+      </c>
+      <c r="N9">
+        <v>32.975526797815903</v>
+      </c>
+      <c r="O9">
+        <v>0.117755412949943</v>
+      </c>
+      <c r="Q9">
+        <v>0.35</v>
+      </c>
+      <c r="R9">
+        <v>5.7527792881313102</v>
+      </c>
+      <c r="S9">
+        <v>0.24972005873668099</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -828,11 +3219,250 @@
       </c>
       <c r="C10">
         <v>0.17823261735257301</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.16656580377910785</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>8.0019473580295202</v>
+      </c>
+      <c r="G10">
+        <v>0.15594844219385501</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.10548076862305086</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>13.174453304298</v>
+      </c>
+      <c r="K10">
+        <v>7.6251754315102005E-2</v>
+      </c>
+      <c r="M10">
+        <v>900</v>
+      </c>
+      <c r="N10">
+        <v>37.070497371870701</v>
+      </c>
+      <c r="O10">
+        <v>0.115130140662544</v>
+      </c>
+      <c r="Q10">
+        <v>0.4</v>
+      </c>
+      <c r="R10">
+        <v>6.0582787353362102</v>
+      </c>
+      <c r="S10">
+        <v>0.25660898645847202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>14.613694262394</v>
+      </c>
+      <c r="K11">
+        <v>7.0295199965559302E-2</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>41.495328017421102</v>
+      </c>
+      <c r="O11">
+        <v>0.11462017978265999</v>
+      </c>
+      <c r="Q11">
+        <v>0.45</v>
+      </c>
+      <c r="R11">
+        <v>6.2606530681239896</v>
+      </c>
+      <c r="S11">
+        <v>0.25514523489747698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <v>16.159829470155</v>
+      </c>
+      <c r="K12">
+        <v>6.5291156199831404E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>120</v>
+      </c>
+      <c r="J13">
+        <v>17.837219551871499</v>
+      </c>
+      <c r="K13">
+        <v>6.0582035638538298E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>130</v>
+      </c>
+      <c r="J14">
+        <v>19.073984549111799</v>
+      </c>
+      <c r="K14">
+        <v>5.6855099655482598E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>140</v>
+      </c>
+      <c r="J15">
+        <v>20.3640389252609</v>
+      </c>
+      <c r="K15">
+        <v>5.4227047712806502E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <v>22.005791088963498</v>
+      </c>
+      <c r="K16">
+        <v>4.9838460406889599E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>160</v>
+      </c>
+      <c r="J17">
+        <v>23.4870458431553</v>
+      </c>
+      <c r="K17">
+        <v>4.6019809733572198E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>170</v>
+      </c>
+      <c r="J18">
+        <v>24.674279304727101</v>
+      </c>
+      <c r="K18">
+        <v>4.5158989570392903E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>180</v>
+      </c>
+      <c r="J19">
+        <v>26.342562553444498</v>
+      </c>
+      <c r="K19">
+        <v>4.3133396590052199E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>190</v>
+      </c>
+      <c r="J20">
+        <v>27.900028093145998</v>
+      </c>
+      <c r="K20">
+        <v>4.1183995885686497E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>200</v>
+      </c>
+      <c r="J21">
+        <v>29.542573777015701</v>
+      </c>
+      <c r="K21">
+        <v>3.8191638384258299E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>210</v>
+      </c>
+      <c r="J22">
+        <v>31.212977870060399</v>
+      </c>
+      <c r="K22">
+        <v>3.8489698687815398E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>220</v>
+      </c>
+      <c r="J23">
+        <v>32.386756049179702</v>
+      </c>
+      <c r="K23">
+        <v>3.5571499915205203E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>230</v>
+      </c>
+      <c r="J24">
+        <v>33.726660190301097</v>
+      </c>
+      <c r="K24">
+        <v>3.5041749963268497E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>240</v>
+      </c>
+      <c r="J25">
+        <v>35.705906506967999</v>
+      </c>
+      <c r="K25">
+        <v>3.2719326490870303E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>250</v>
+      </c>
+      <c r="J26">
+        <v>37.063412492587403</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3.2836153511396002E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -840,7 +3470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
